--- a/Data_PAPICHOrm_export.xlsx
+++ b/Data_PAPICHOrm_export.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bserranito\Documents\R\Velella\Haliotis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF09E4B-268F-4C79-ACF5-42E1C804F949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FFC8F2-A886-4910-8A57-53F9C477A38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Velella_data" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="55">
   <si>
     <t>Site</t>
   </si>
@@ -169,6 +169,42 @@
   </si>
   <si>
     <t>Density</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>Clavier 1987</t>
+  </si>
+  <si>
+    <t>Clavier 1988</t>
+  </si>
+  <si>
+    <t>Clavier 1989</t>
+  </si>
+  <si>
+    <t>Clavier 1990</t>
+  </si>
+  <si>
+    <t>Clavier 1991</t>
+  </si>
+  <si>
+    <t>Clavier 1992</t>
+  </si>
+  <si>
+    <t>Clavier 1993</t>
+  </si>
+  <si>
+    <t>Clavier 1994</t>
+  </si>
+  <si>
+    <t>Clavier et al., 1989</t>
+  </si>
+  <si>
+    <t>Clavier et al., 1990</t>
+  </si>
+  <si>
+    <t>Clavier et al., 1991</t>
   </si>
 </sst>
 </file>
@@ -560,7 +596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
@@ -4455,10 +4491,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6BB815-C346-4CA8-BA41-2E8E1C39510B}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4467,7 +4503,7 @@
     <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>41</v>
       </c>
@@ -4480,8 +4516,11 @@
       <c r="D1" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>26</v>
       </c>
@@ -4494,8 +4533,11 @@
       <c r="D2" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>27</v>
       </c>
@@ -4508,8 +4550,11 @@
       <c r="D3" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>30</v>
       </c>
@@ -4522,8 +4567,11 @@
       <c r="D4" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>31</v>
       </c>
@@ -4536,8 +4584,11 @@
       <c r="D5" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>32</v>
       </c>
@@ -4550,8 +4601,11 @@
       <c r="D6" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>33</v>
       </c>
@@ -4564,8 +4618,11 @@
       <c r="D7" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>34</v>
       </c>
@@ -4578,8 +4635,11 @@
       <c r="D8" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>35</v>
       </c>
@@ -4592,8 +4652,11 @@
       <c r="D9" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -4606,8 +4669,11 @@
       <c r="D10" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>2</v>
       </c>
@@ -4620,8 +4686,11 @@
       <c r="D11" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>3</v>
       </c>
@@ -4634,8 +4703,12 @@
       <c r="D12" s="4">
         <v>38</v>
       </c>
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
